--- a/PythonResources/Data/Consumption/Sympheny/base_1349_hea.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/base_1349_hea.xlsx
@@ -687,7 +687,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>39.19209692914305</v>
+        <v>39.19209692914304</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -695,7 +695,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>41.74972788354061</v>
+        <v>41.7497278835406</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -815,7 +815,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>8.301149248771008</v>
+        <v>8.301149248771006</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1007,7 +1007,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>0.2222416300376714</v>
+        <v>0.2222416300376713</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1135,7 +1135,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>26.29084604333584</v>
+        <v>26.29084604333583</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1719,7 +1719,7 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>92.30389591054536</v>
+        <v>92.30389591054534</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1751,7 +1751,7 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>57.52222504221689</v>
+        <v>57.52222504221688</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1767,7 +1767,7 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>52.26394446655503</v>
+        <v>52.26394446655502</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1871,7 +1871,7 @@
         <v>191</v>
       </c>
       <c r="B191">
-        <v>47.47428448171267</v>
+        <v>47.47428448171266</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1919,7 +1919,7 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <v>51.59632864048449</v>
+        <v>51.59632864048448</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1951,7 +1951,7 @@
         <v>201</v>
       </c>
       <c r="B201">
-        <v>35.80097194079262</v>
+        <v>35.80097194079261</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -1967,7 +1967,7 @@
         <v>203</v>
       </c>
       <c r="B203">
-        <v>28.965910562925</v>
+        <v>28.96591056292499</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2007,7 +2007,7 @@
         <v>208</v>
       </c>
       <c r="B208">
-        <v>23.69488139708137</v>
+        <v>23.69488139708136</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2079,7 +2079,7 @@
         <v>217</v>
       </c>
       <c r="B217">
-        <v>52.01688558096352</v>
+        <v>52.01688558096351</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2175,7 +2175,7 @@
         <v>229</v>
       </c>
       <c r="B229">
-        <v>7.011460836037891</v>
+        <v>7.01146083603789</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2223,7 +2223,7 @@
         <v>235</v>
       </c>
       <c r="B235">
-        <v>7.451389772172437</v>
+        <v>7.451389772172436</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2271,7 +2271,7 @@
         <v>241</v>
       </c>
       <c r="B241">
-        <v>36.22123581023299</v>
+        <v>36.22123581023298</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2303,7 +2303,7 @@
         <v>245</v>
       </c>
       <c r="B245">
-        <v>34.42002120662036</v>
+        <v>34.42002120662035</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -2367,7 +2367,7 @@
         <v>253</v>
       </c>
       <c r="B253">
-        <v>5.663216829780239</v>
+        <v>5.663216829780238</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2551,7 +2551,7 @@
         <v>276</v>
       </c>
       <c r="B276">
-        <v>6.509488761018739</v>
+        <v>6.509488761018738</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -2639,7 +2639,7 @@
         <v>287</v>
       </c>
       <c r="B287">
-        <v>20.79429871324231</v>
+        <v>20.7942987132423</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -2647,7 +2647,7 @@
         <v>288</v>
       </c>
       <c r="B288">
-        <v>23.41532093330231</v>
+        <v>23.4153209333023</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -3231,7 +3231,7 @@
         <v>361</v>
       </c>
       <c r="B361">
-        <v>156.5518082190015</v>
+        <v>156.5518082190014</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -3319,7 +3319,7 @@
         <v>372</v>
       </c>
       <c r="B372">
-        <v>34.84819799410459</v>
+        <v>34.84819799410458</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -3351,7 +3351,7 @@
         <v>376</v>
       </c>
       <c r="B376">
-        <v>22.1711464528733</v>
+        <v>22.17114645287329</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -3471,7 +3471,7 @@
         <v>391</v>
       </c>
       <c r="B391">
-        <v>57.70099837580031</v>
+        <v>57.7009983758003</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -3551,7 +3551,7 @@
         <v>401</v>
       </c>
       <c r="B401">
-        <v>47.45142494069708</v>
+        <v>47.45142494069707</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -3575,7 +3575,7 @@
         <v>404</v>
       </c>
       <c r="B404">
-        <v>63.64418596881373</v>
+        <v>63.64418596881372</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -3591,7 +3591,7 @@
         <v>406</v>
       </c>
       <c r="B406">
-        <v>68.60353408504102</v>
+        <v>68.60353408504101</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -3631,7 +3631,7 @@
         <v>411</v>
       </c>
       <c r="B411">
-        <v>78.10079416390057</v>
+        <v>78.10079416390056</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -3655,7 +3655,7 @@
         <v>414</v>
       </c>
       <c r="B414">
-        <v>74.58306248684845</v>
+        <v>74.58306248684843</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -3751,7 +3751,7 @@
         <v>426</v>
       </c>
       <c r="B426">
-        <v>54.44234149692481</v>
+        <v>54.4423414969248</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -3759,7 +3759,7 @@
         <v>427</v>
       </c>
       <c r="B427">
-        <v>57.57849468163987</v>
+        <v>57.57849468163986</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -3959,7 +3959,7 @@
         <v>452</v>
       </c>
       <c r="B452">
-        <v>65.5793340370946</v>
+        <v>65.57933403709458</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -3983,7 +3983,7 @@
         <v>455</v>
       </c>
       <c r="B455">
-        <v>66.03564564429031</v>
+        <v>66.0356456442903</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -4519,7 +4519,7 @@
         <v>522</v>
       </c>
       <c r="B522">
-        <v>84.10347517776225</v>
+        <v>84.10347517776223</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -4567,7 +4567,7 @@
         <v>528</v>
       </c>
       <c r="B528">
-        <v>81.748942453157</v>
+        <v>81.74894245315699</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -4623,7 +4623,7 @@
         <v>535</v>
       </c>
       <c r="B535">
-        <v>77.30598550705101</v>
+        <v>77.30598550705099</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -4631,7 +4631,7 @@
         <v>536</v>
       </c>
       <c r="B536">
-        <v>76.62635376839535</v>
+        <v>76.62635376839533</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -4663,7 +4663,7 @@
         <v>540</v>
       </c>
       <c r="B540">
-        <v>68.6082232216596</v>
+        <v>68.60822322165959</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -4711,7 +4711,7 @@
         <v>546</v>
       </c>
       <c r="B546">
-        <v>69.59176962740707</v>
+        <v>69.59176962740706</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -4743,7 +4743,7 @@
         <v>550</v>
       </c>
       <c r="B550">
-        <v>75.61496561397504</v>
+        <v>75.61496561397503</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -4751,7 +4751,7 @@
         <v>551</v>
       </c>
       <c r="B551">
-        <v>78.09815652455262</v>
+        <v>78.09815652455261</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -4775,7 +4775,7 @@
         <v>554</v>
       </c>
       <c r="B554">
-        <v>82.15220820235501</v>
+        <v>82.152208202355</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -4799,7 +4799,7 @@
         <v>557</v>
       </c>
       <c r="B557">
-        <v>84.26378503591</v>
+        <v>84.26378503590999</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -4807,7 +4807,7 @@
         <v>558</v>
       </c>
       <c r="B558">
-        <v>80.08048903005796</v>
+        <v>80.08048903005795</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -4823,7 +4823,7 @@
         <v>560</v>
       </c>
       <c r="B560">
-        <v>73.91486051870058</v>
+        <v>73.91486051870056</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -4927,7 +4927,7 @@
         <v>573</v>
       </c>
       <c r="B573">
-        <v>64.26989263635571</v>
+        <v>64.26989263635569</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -4935,7 +4935,7 @@
         <v>574</v>
       </c>
       <c r="B574">
-        <v>64.72620424355142</v>
+        <v>64.72620424355141</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -4999,7 +4999,7 @@
         <v>582</v>
       </c>
       <c r="B582">
-        <v>57.82789813554067</v>
+        <v>57.82789813554066</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -5127,7 +5127,7 @@
         <v>598</v>
       </c>
       <c r="B598">
-        <v>51.33139242153463</v>
+        <v>51.33139242153462</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -5175,7 +5175,7 @@
         <v>604</v>
       </c>
       <c r="B604">
-        <v>55.17326066734621</v>
+        <v>55.1732606673462</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -5279,7 +5279,7 @@
         <v>617</v>
       </c>
       <c r="B617">
-        <v>21.2021656777473</v>
+        <v>21.20216567774729</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -5287,7 +5287,7 @@
         <v>618</v>
       </c>
       <c r="B618">
-        <v>31.79293241606006</v>
+        <v>31.79293241606005</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -5303,7 +5303,7 @@
         <v>620</v>
       </c>
       <c r="B620">
-        <v>38.95734702717531</v>
+        <v>38.9573470271753</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -5767,7 +5767,7 @@
         <v>678</v>
       </c>
       <c r="B678">
-        <v>143.3700590420915</v>
+        <v>143.3700590420914</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -5791,7 +5791,7 @@
         <v>681</v>
       </c>
       <c r="B681">
-        <v>91.16267728599809</v>
+        <v>91.16267728599806</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -5807,7 +5807,7 @@
         <v>683</v>
       </c>
       <c r="B683">
-        <v>71.71653465770183</v>
+        <v>71.71653465770181</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -5815,7 +5815,7 @@
         <v>684</v>
       </c>
       <c r="B684">
-        <v>60.05963409494682</v>
+        <v>60.05963409494681</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -5839,7 +5839,7 @@
         <v>687</v>
       </c>
       <c r="B687">
-        <v>39.42127848137622</v>
+        <v>39.42127848137621</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -5871,7 +5871,7 @@
         <v>691</v>
       </c>
       <c r="B691">
-        <v>61.11937897074624</v>
+        <v>61.11937897074623</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -5903,7 +5903,7 @@
         <v>695</v>
       </c>
       <c r="B695">
-        <v>65.47734531564045</v>
+        <v>65.47734531564043</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -5951,7 +5951,7 @@
         <v>701</v>
       </c>
       <c r="B701">
-        <v>60.14902076173853</v>
+        <v>60.14902076173852</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -5991,7 +5991,7 @@
         <v>706</v>
       </c>
       <c r="B706">
-        <v>48.96982599200151</v>
+        <v>48.9698259920015</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -6039,7 +6039,7 @@
         <v>712</v>
       </c>
       <c r="B712">
-        <v>30.56115484056643</v>
+        <v>30.56115484056642</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -6047,7 +6047,7 @@
         <v>713</v>
       </c>
       <c r="B713">
-        <v>32.90689543401184</v>
+        <v>32.90689543401183</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -6167,7 +6167,7 @@
         <v>728</v>
       </c>
       <c r="B728">
-        <v>57.83551798254587</v>
+        <v>57.83551798254586</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -6223,7 +6223,7 @@
         <v>735</v>
       </c>
       <c r="B735">
-        <v>17.38966315000959</v>
+        <v>17.38966315000958</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -6255,7 +6255,7 @@
         <v>739</v>
       </c>
       <c r="B739">
-        <v>39.86967717052808</v>
+        <v>39.86967717052807</v>
       </c>
     </row>
     <row r="740" spans="1:2">
@@ -6263,7 +6263,7 @@
         <v>740</v>
       </c>
       <c r="B740">
-        <v>48.05016907268221</v>
+        <v>48.0501690726822</v>
       </c>
     </row>
     <row r="741" spans="1:2">
@@ -6303,7 +6303,7 @@
         <v>745</v>
       </c>
       <c r="B745">
-        <v>63.27257189179115</v>
+        <v>63.27257189179114</v>
       </c>
     </row>
     <row r="746" spans="1:2">
@@ -6327,7 +6327,7 @@
         <v>748</v>
       </c>
       <c r="B748">
-        <v>70.93169041616675</v>
+        <v>70.93169041616673</v>
       </c>
     </row>
     <row r="749" spans="1:2">
@@ -6359,7 +6359,7 @@
         <v>752</v>
       </c>
       <c r="B752">
-        <v>56.99762788301308</v>
+        <v>56.99762788301307</v>
       </c>
     </row>
     <row r="753" spans="1:2">
@@ -6495,7 +6495,7 @@
         <v>769</v>
       </c>
       <c r="B769">
-        <v>55.16095168372243</v>
+        <v>55.16095168372242</v>
       </c>
     </row>
     <row r="770" spans="1:2">
@@ -6679,7 +6679,7 @@
         <v>792</v>
       </c>
       <c r="B792">
-        <v>69.14073329890726</v>
+        <v>69.14073329890725</v>
       </c>
     </row>
     <row r="793" spans="1:2">
@@ -7223,7 +7223,7 @@
         <v>860</v>
       </c>
       <c r="B860">
-        <v>91.69254972389778</v>
+        <v>91.69254972389776</v>
       </c>
     </row>
     <row r="861" spans="1:2">
@@ -7263,7 +7263,7 @@
         <v>865</v>
       </c>
       <c r="B865">
-        <v>95.62937298623564</v>
+        <v>95.62937298623562</v>
       </c>
     </row>
     <row r="866" spans="1:2">
@@ -7327,7 +7327,7 @@
         <v>873</v>
       </c>
       <c r="B873">
-        <v>70.03225539851508</v>
+        <v>70.03225539851506</v>
       </c>
     </row>
     <row r="874" spans="1:2">
@@ -7367,7 +7367,7 @@
         <v>878</v>
       </c>
       <c r="B878">
-        <v>31.00574360621569</v>
+        <v>31.00574360621568</v>
       </c>
     </row>
     <row r="879" spans="1:2">
@@ -7383,7 +7383,7 @@
         <v>880</v>
       </c>
       <c r="B880">
-        <v>25.96014468331037</v>
+        <v>25.96014468331036</v>
       </c>
     </row>
     <row r="881" spans="1:2">
@@ -7551,7 +7551,7 @@
         <v>901</v>
       </c>
       <c r="B901">
-        <v>40.4631460238173</v>
+        <v>40.46314602381729</v>
       </c>
     </row>
     <row r="902" spans="1:2">
@@ -7679,7 +7679,7 @@
         <v>917</v>
       </c>
       <c r="B917">
-        <v>45.1024605658264</v>
+        <v>45.10246056582639</v>
       </c>
     </row>
     <row r="918" spans="1:2">
@@ -7727,7 +7727,7 @@
         <v>923</v>
       </c>
       <c r="B923">
-        <v>30.0579518671849</v>
+        <v>30.05795186718489</v>
       </c>
     </row>
     <row r="924" spans="1:2">
@@ -7743,7 +7743,7 @@
         <v>925</v>
       </c>
       <c r="B925">
-        <v>25.91249133242404</v>
+        <v>25.91249133242403</v>
       </c>
     </row>
     <row r="926" spans="1:2">
@@ -7807,7 +7807,7 @@
         <v>933</v>
       </c>
       <c r="B933">
-        <v>37.81114619497079</v>
+        <v>37.81114619497078</v>
       </c>
     </row>
     <row r="934" spans="1:2">
@@ -7855,7 +7855,7 @@
         <v>939</v>
       </c>
       <c r="B939">
-        <v>41.27319437467726</v>
+        <v>41.27319437467725</v>
       </c>
     </row>
     <row r="940" spans="1:2">
@@ -7871,7 +7871,7 @@
         <v>941</v>
       </c>
       <c r="B941">
-        <v>37.53595248966779</v>
+        <v>37.53595248966778</v>
       </c>
     </row>
     <row r="942" spans="1:2">
@@ -7919,7 +7919,7 @@
         <v>947</v>
       </c>
       <c r="B947">
-        <v>19.33020372540182</v>
+        <v>19.33020372540181</v>
       </c>
     </row>
     <row r="948" spans="1:2">
@@ -7967,7 +7967,7 @@
         <v>953</v>
       </c>
       <c r="B953">
-        <v>18.33100732618983</v>
+        <v>18.33100732618982</v>
       </c>
     </row>
     <row r="954" spans="1:2">
@@ -7999,7 +7999,7 @@
         <v>957</v>
       </c>
       <c r="B957">
-        <v>34.32594540321007</v>
+        <v>34.32594540321006</v>
       </c>
     </row>
     <row r="958" spans="1:2">
@@ -8423,7 +8423,7 @@
         <v>1010</v>
       </c>
       <c r="B1010">
-        <v>122.3685884116195</v>
+        <v>122.3685884116194</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
@@ -8511,7 +8511,7 @@
         <v>1021</v>
       </c>
       <c r="B1021">
-        <v>43.47972622475853</v>
+        <v>43.47972622475852</v>
       </c>
     </row>
     <row r="1022" spans="1:2">
@@ -8535,7 +8535,7 @@
         <v>1024</v>
       </c>
       <c r="B1024">
-        <v>35.28897683625125</v>
+        <v>35.28897683625124</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
@@ -8599,7 +8599,7 @@
         <v>1032</v>
       </c>
       <c r="B1032">
-        <v>65.73231711927582</v>
+        <v>65.73231711927581</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
@@ -8615,7 +8615,7 @@
         <v>1034</v>
       </c>
       <c r="B1034">
-        <v>69.99913837114634</v>
+        <v>69.99913837114633</v>
       </c>
     </row>
     <row r="1035" spans="1:2">
@@ -8631,7 +8631,7 @@
         <v>1036</v>
       </c>
       <c r="B1036">
-        <v>74.34333037722347</v>
+        <v>74.34333037722345</v>
       </c>
     </row>
     <row r="1037" spans="1:2">
@@ -8903,7 +8903,7 @@
         <v>1070</v>
       </c>
       <c r="B1070">
-        <v>2.846373333817878</v>
+        <v>2.846373333817877</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
@@ -8919,7 +8919,7 @@
         <v>1072</v>
       </c>
       <c r="B1072">
-        <v>3.824899432673084</v>
+        <v>3.824899432673083</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
@@ -8975,7 +8975,7 @@
         <v>1079</v>
       </c>
       <c r="B1079">
-        <v>39.61734300624066</v>
+        <v>39.61734300624065</v>
       </c>
     </row>
     <row r="1080" spans="1:2">
@@ -8983,7 +8983,7 @@
         <v>1080</v>
       </c>
       <c r="B1080">
-        <v>41.62986182872812</v>
+        <v>41.62986182872811</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
@@ -9047,7 +9047,7 @@
         <v>1088</v>
       </c>
       <c r="B1088">
-        <v>32.94265010072852</v>
+        <v>32.94265010072851</v>
       </c>
     </row>
     <row r="1089" spans="1:2">
@@ -9071,7 +9071,7 @@
         <v>1091</v>
       </c>
       <c r="B1091">
-        <v>31.16224354086085</v>
+        <v>31.16224354086084</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
@@ -9191,7 +9191,7 @@
         <v>1106</v>
       </c>
       <c r="B1106">
-        <v>48.9926855330171</v>
+        <v>48.99268553301709</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
@@ -9279,7 +9279,7 @@
         <v>1117</v>
       </c>
       <c r="B1117">
-        <v>44.9978342050243</v>
+        <v>44.99783420502429</v>
       </c>
     </row>
     <row r="1118" spans="1:2">
@@ -9327,7 +9327,7 @@
         <v>1123</v>
       </c>
       <c r="B1123">
-        <v>56.1339475320781</v>
+        <v>56.13394753207809</v>
       </c>
     </row>
     <row r="1124" spans="1:2">
@@ -9359,7 +9359,7 @@
         <v>1127</v>
       </c>
       <c r="B1127">
-        <v>59.58339365712213</v>
+        <v>59.58339365712212</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
@@ -9367,7 +9367,7 @@
         <v>1128</v>
       </c>
       <c r="B1128">
-        <v>61.03790522199839</v>
+        <v>61.03790522199838</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
@@ -10023,7 +10023,7 @@
         <v>1210</v>
       </c>
       <c r="B1210">
-        <v>68.81483830391585</v>
+        <v>68.81483830391583</v>
       </c>
     </row>
     <row r="1211" spans="1:2">
@@ -10047,7 +10047,7 @@
         <v>1213</v>
       </c>
       <c r="B1213">
-        <v>51.26545143783583</v>
+        <v>51.26545143783582</v>
       </c>
     </row>
     <row r="1214" spans="1:2">
@@ -10087,7 +10087,7 @@
         <v>1218</v>
       </c>
       <c r="B1218">
-        <v>39.12820744271488</v>
+        <v>39.12820744271487</v>
       </c>
     </row>
     <row r="1219" spans="1:2">
@@ -10095,7 +10095,7 @@
         <v>1219</v>
       </c>
       <c r="B1219">
-        <v>38.7102881415838</v>
+        <v>38.71028814158379</v>
       </c>
     </row>
     <row r="1220" spans="1:2">
@@ -10143,7 +10143,7 @@
         <v>1225</v>
       </c>
       <c r="B1225">
-        <v>35.15152651911908</v>
+        <v>35.15152651911907</v>
       </c>
     </row>
     <row r="1226" spans="1:2">
@@ -10247,7 +10247,7 @@
         <v>1238</v>
       </c>
       <c r="B1238">
-        <v>2.321298468821052</v>
+        <v>2.321298468821051</v>
       </c>
     </row>
     <row r="1239" spans="1:2">
@@ -10327,7 +10327,7 @@
         <v>1248</v>
       </c>
       <c r="B1248">
-        <v>21.38791410205086</v>
+        <v>21.38791410205085</v>
       </c>
     </row>
     <row r="1249" spans="1:2">
@@ -10423,7 +10423,7 @@
         <v>1260</v>
       </c>
       <c r="B1260">
-        <v>5.947085437827617</v>
+        <v>5.947085437827616</v>
       </c>
     </row>
     <row r="1261" spans="1:2">
@@ -10439,7 +10439,7 @@
         <v>1262</v>
       </c>
       <c r="B1262">
-        <v>4.681135779226071</v>
+        <v>4.68113577922607</v>
       </c>
     </row>
     <row r="1263" spans="1:2">
@@ -10647,7 +10647,7 @@
         <v>1288</v>
       </c>
       <c r="B1288">
-        <v>5.271351543986153</v>
+        <v>5.271351543986152</v>
       </c>
     </row>
     <row r="1289" spans="1:2">
@@ -11111,7 +11111,7 @@
         <v>1346</v>
       </c>
       <c r="B1346">
-        <v>34.76174203769949</v>
+        <v>34.76174203769948</v>
       </c>
     </row>
     <row r="1347" spans="1:2">
@@ -11127,7 +11127,7 @@
         <v>1348</v>
       </c>
       <c r="B1348">
-        <v>28.3103692636473</v>
+        <v>28.31036926364729</v>
       </c>
     </row>
     <row r="1349" spans="1:2">
@@ -11183,7 +11183,7 @@
         <v>1355</v>
       </c>
       <c r="B1355">
-        <v>7.744490117937648</v>
+        <v>7.744490117937647</v>
       </c>
     </row>
     <row r="1356" spans="1:2">
@@ -11375,7 +11375,7 @@
         <v>1379</v>
       </c>
       <c r="B1379">
-        <v>5.949928226902633</v>
+        <v>5.949928226902632</v>
       </c>
     </row>
     <row r="1380" spans="1:2">
@@ -11463,7 +11463,7 @@
         <v>1390</v>
       </c>
       <c r="B1390">
-        <v>5.203681441159249</v>
+        <v>5.203681441159248</v>
       </c>
     </row>
     <row r="1391" spans="1:2">
@@ -11471,7 +11471,7 @@
         <v>1391</v>
       </c>
       <c r="B1391">
-        <v>6.215919501591669</v>
+        <v>6.215919501591668</v>
       </c>
     </row>
     <row r="1392" spans="1:2">
@@ -11559,7 +11559,7 @@
         <v>1402</v>
       </c>
       <c r="B1402">
-        <v>0.1529977357331553</v>
+        <v>0.1529977357331552</v>
       </c>
     </row>
     <row r="1403" spans="1:2">
@@ -11639,7 +11639,7 @@
         <v>1412</v>
       </c>
       <c r="B1412">
-        <v>0.8762443063623965</v>
+        <v>0.8762443063623964</v>
       </c>
     </row>
     <row r="1413" spans="1:2">
@@ -11647,7 +11647,7 @@
         <v>1413</v>
       </c>
       <c r="B1413">
-        <v>6.173658657816704</v>
+        <v>6.173658657816703</v>
       </c>
     </row>
     <row r="1414" spans="1:2">
@@ -11695,7 +11695,7 @@
         <v>1419</v>
       </c>
       <c r="B1419">
-        <v>44.30003206197164</v>
+        <v>44.30003206197163</v>
       </c>
     </row>
     <row r="1420" spans="1:2">
@@ -11711,7 +11711,7 @@
         <v>1421</v>
       </c>
       <c r="B1421">
-        <v>44.93423778963479</v>
+        <v>44.93423778963478</v>
       </c>
     </row>
     <row r="1422" spans="1:2">
@@ -11727,7 +11727,7 @@
         <v>1423</v>
       </c>
       <c r="B1423">
-        <v>39.3729217599971</v>
+        <v>39.37292175999709</v>
       </c>
     </row>
     <row r="1424" spans="1:2">
@@ -11807,7 +11807,7 @@
         <v>1433</v>
       </c>
       <c r="B1433">
-        <v>25.90375781547193</v>
+        <v>25.90375781547192</v>
       </c>
     </row>
     <row r="1434" spans="1:2">
@@ -11863,7 +11863,7 @@
         <v>1440</v>
       </c>
       <c r="B1440">
-        <v>48.83237567486934</v>
+        <v>48.83237567486933</v>
       </c>
     </row>
     <row r="1441" spans="1:2">
@@ -11887,7 +11887,7 @@
         <v>1443</v>
       </c>
       <c r="B1443">
-        <v>54.7532898689445</v>
+        <v>54.75328986894449</v>
       </c>
     </row>
     <row r="1444" spans="1:2">
@@ -11919,7 +11919,7 @@
         <v>1447</v>
       </c>
       <c r="B1447">
-        <v>46.52942345306849</v>
+        <v>46.52942345306848</v>
       </c>
     </row>
     <row r="1448" spans="1:2">
@@ -11991,7 +11991,7 @@
         <v>1456</v>
       </c>
       <c r="B1456">
-        <v>22.05945708003946</v>
+        <v>22.05945708003945</v>
       </c>
     </row>
     <row r="1457" spans="1:2">
@@ -12039,7 +12039,7 @@
         <v>1462</v>
       </c>
       <c r="B1462">
-        <v>53.36940842438563</v>
+        <v>53.36940842438562</v>
       </c>
     </row>
     <row r="1463" spans="1:2">
@@ -12471,7 +12471,7 @@
         <v>1516</v>
       </c>
       <c r="B1516">
-        <v>97.55807349166597</v>
+        <v>97.55807349166594</v>
       </c>
     </row>
     <row r="1517" spans="1:2">
@@ -12631,7 +12631,7 @@
         <v>1536</v>
       </c>
       <c r="B1536">
-        <v>52.51627863084245</v>
+        <v>52.51627863084244</v>
       </c>
     </row>
     <row r="1537" spans="1:2">
@@ -12887,7 +12887,7 @@
         <v>1568</v>
       </c>
       <c r="B1568">
-        <v>16.98220648495872</v>
+        <v>16.98220648495871</v>
       </c>
     </row>
     <row r="1569" spans="1:2">
@@ -12903,7 +12903,7 @@
         <v>1570</v>
       </c>
       <c r="B1570">
-        <v>2.326307052871774</v>
+        <v>2.326307052871773</v>
       </c>
     </row>
     <row r="1571" spans="1:2">
@@ -13071,7 +13071,7 @@
         <v>1591</v>
       </c>
       <c r="B1591">
-        <v>5.732967736981639</v>
+        <v>5.732967736981638</v>
       </c>
     </row>
     <row r="1592" spans="1:2">
@@ -13111,7 +13111,7 @@
         <v>1596</v>
       </c>
       <c r="B1596">
-        <v>33.73247654992085</v>
+        <v>33.73247654992084</v>
       </c>
     </row>
     <row r="1597" spans="1:2">
@@ -13143,7 +13143,7 @@
         <v>1600</v>
       </c>
       <c r="B1600">
-        <v>27.51034394230956</v>
+        <v>27.51034394230955</v>
       </c>
     </row>
     <row r="1601" spans="1:2">
@@ -13215,7 +13215,7 @@
         <v>1609</v>
       </c>
       <c r="B1609">
-        <v>62.77816104956946</v>
+        <v>62.77816104956945</v>
       </c>
     </row>
     <row r="1610" spans="1:2">
@@ -13223,7 +13223,7 @@
         <v>1610</v>
       </c>
       <c r="B1610">
-        <v>63.69312883227018</v>
+        <v>63.69312883227017</v>
       </c>
     </row>
     <row r="1611" spans="1:2">
@@ -13255,7 +13255,7 @@
         <v>1614</v>
       </c>
       <c r="B1614">
-        <v>67.18682868415208</v>
+        <v>67.18682868415206</v>
       </c>
     </row>
     <row r="1615" spans="1:2">
@@ -13287,7 +13287,7 @@
         <v>1618</v>
       </c>
       <c r="B1618">
-        <v>41.63015489976678</v>
+        <v>41.63015489976677</v>
       </c>
     </row>
     <row r="1619" spans="1:2">
@@ -13343,7 +13343,7 @@
         <v>1625</v>
       </c>
       <c r="B1625">
-        <v>23.32921666214361</v>
+        <v>23.3292166621436</v>
       </c>
     </row>
     <row r="1626" spans="1:2">
@@ -13383,7 +13383,7 @@
         <v>1630</v>
       </c>
       <c r="B1630">
-        <v>52.99779434736304</v>
+        <v>52.99779434736303</v>
       </c>
     </row>
     <row r="1631" spans="1:2">
@@ -13839,7 +13839,7 @@
         <v>1687</v>
       </c>
       <c r="B1687">
-        <v>66.29530658454426</v>
+        <v>66.29530658454425</v>
       </c>
     </row>
     <row r="1688" spans="1:2">
@@ -13847,7 +13847,7 @@
         <v>1688</v>
       </c>
       <c r="B1688">
-        <v>56.31242779462286</v>
+        <v>56.31242779462285</v>
       </c>
     </row>
     <row r="1689" spans="1:2">
@@ -14071,7 +14071,7 @@
         <v>1716</v>
       </c>
       <c r="B1716">
-        <v>25.64166438559709</v>
+        <v>25.64166438559708</v>
       </c>
     </row>
     <row r="1717" spans="1:2">
@@ -14319,7 +14319,7 @@
         <v>1747</v>
       </c>
       <c r="B1747">
-        <v>19.48353849282944</v>
+        <v>19.48353849282943</v>
       </c>
     </row>
     <row r="1748" spans="1:2">
@@ -14367,7 +14367,7 @@
         <v>1753</v>
       </c>
       <c r="B1753">
-        <v>45.91016434837707</v>
+        <v>45.91016434837706</v>
       </c>
     </row>
     <row r="1754" spans="1:2">
@@ -14431,7 +14431,7 @@
         <v>1761</v>
       </c>
       <c r="B1761">
-        <v>30.5151426874966</v>
+        <v>30.51514268749659</v>
       </c>
     </row>
     <row r="1762" spans="1:2">
@@ -14471,7 +14471,7 @@
         <v>1766</v>
       </c>
       <c r="B1766">
-        <v>6.505590916204543</v>
+        <v>6.505590916204542</v>
       </c>
     </row>
     <row r="1767" spans="1:2">
@@ -14495,7 +14495,7 @@
         <v>1769</v>
       </c>
       <c r="B1769">
-        <v>7.161630436247965</v>
+        <v>7.161630436247964</v>
       </c>
     </row>
     <row r="1770" spans="1:2">
@@ -14631,7 +14631,7 @@
         <v>1786</v>
       </c>
       <c r="B1786">
-        <v>20.5263731696981</v>
+        <v>20.52637316969809</v>
       </c>
     </row>
     <row r="1787" spans="1:2">
@@ -14711,7 +14711,7 @@
         <v>1796</v>
       </c>
       <c r="B1796">
-        <v>31.53678832827005</v>
+        <v>31.53678832827004</v>
       </c>
     </row>
     <row r="1797" spans="1:2">
@@ -15159,7 +15159,7 @@
         <v>1852</v>
       </c>
       <c r="B1852">
-        <v>67.65574234601023</v>
+        <v>67.65574234601021</v>
       </c>
     </row>
     <row r="1853" spans="1:2">
@@ -15167,7 +15167,7 @@
         <v>1853</v>
       </c>
       <c r="B1853">
-        <v>60.68915068599139</v>
+        <v>60.68915068599138</v>
       </c>
     </row>
     <row r="1854" spans="1:2">
@@ -15191,7 +15191,7 @@
         <v>1856</v>
       </c>
       <c r="B1856">
-        <v>44.00168574461439</v>
+        <v>44.00168574461438</v>
       </c>
     </row>
     <row r="1857" spans="1:2">
@@ -15279,7 +15279,7 @@
         <v>1867</v>
       </c>
       <c r="B1867">
-        <v>6.727592227990512</v>
+        <v>6.727592227990511</v>
       </c>
     </row>
     <row r="1868" spans="1:2">
@@ -15327,7 +15327,7 @@
         <v>1873</v>
       </c>
       <c r="B1873">
-        <v>29.64384248955642</v>
+        <v>29.64384248955641</v>
       </c>
     </row>
     <row r="1874" spans="1:2">
@@ -15415,7 +15415,7 @@
         <v>1884</v>
       </c>
       <c r="B1884">
-        <v>17.01532351232745</v>
+        <v>17.01532351232744</v>
       </c>
     </row>
     <row r="1885" spans="1:2">
@@ -15447,7 +15447,7 @@
         <v>1888</v>
       </c>
       <c r="B1888">
-        <v>6.092976200873235</v>
+        <v>6.092976200873234</v>
       </c>
     </row>
     <row r="1889" spans="1:2">
@@ -15519,7 +15519,7 @@
         <v>1897</v>
       </c>
       <c r="B1897">
-        <v>37.40084674084491</v>
+        <v>37.4008467408449</v>
       </c>
     </row>
     <row r="1898" spans="1:2">
@@ -15559,7 +15559,7 @@
         <v>1902</v>
       </c>
       <c r="B1902">
-        <v>29.3293772650728</v>
+        <v>29.32937726507279</v>
       </c>
     </row>
     <row r="1903" spans="1:2">
@@ -15751,7 +15751,7 @@
         <v>1926</v>
       </c>
       <c r="B1926">
-        <v>40.16245513815076</v>
+        <v>40.16245513815075</v>
       </c>
     </row>
     <row r="1927" spans="1:2">
@@ -15791,7 +15791,7 @@
         <v>1931</v>
       </c>
       <c r="B1931">
-        <v>7.790941877565471</v>
+        <v>7.79094187756547</v>
       </c>
     </row>
     <row r="1932" spans="1:2">
@@ -15847,7 +15847,7 @@
         <v>1938</v>
       </c>
       <c r="B1938">
-        <v>0.8332888842258032</v>
+        <v>0.8332888842258031</v>
       </c>
     </row>
     <row r="1939" spans="1:2">
@@ -16519,7 +16519,7 @@
         <v>2022</v>
       </c>
       <c r="B2022">
-        <v>60.74248961502775</v>
+        <v>60.74248961502774</v>
       </c>
     </row>
     <row r="2023" spans="1:2">
@@ -16583,7 +16583,7 @@
         <v>2030</v>
       </c>
       <c r="B2030">
-        <v>31.2475272131113</v>
+        <v>31.24752721311129</v>
       </c>
     </row>
     <row r="2031" spans="1:2">
@@ -16655,7 +16655,7 @@
         <v>2039</v>
       </c>
       <c r="B2039">
-        <v>41.32682637475229</v>
+        <v>41.32682637475228</v>
       </c>
     </row>
     <row r="2040" spans="1:2">
@@ -16703,7 +16703,7 @@
         <v>2045</v>
       </c>
       <c r="B2045">
-        <v>35.41118745937303</v>
+        <v>35.41118745937302</v>
       </c>
     </row>
     <row r="2046" spans="1:2">
@@ -16735,7 +16735,7 @@
         <v>2049</v>
       </c>
       <c r="B2049">
-        <v>28.62457072419613</v>
+        <v>28.62457072419612</v>
       </c>
     </row>
     <row r="2050" spans="1:2">
@@ -16751,7 +16751,7 @@
         <v>2051</v>
       </c>
       <c r="B2051">
-        <v>23.02776379177655</v>
+        <v>23.02776379177654</v>
       </c>
     </row>
     <row r="2052" spans="1:2">
@@ -16871,7 +16871,7 @@
         <v>2066</v>
       </c>
       <c r="B2066">
-        <v>40.65188377271521</v>
+        <v>40.6518837727152</v>
       </c>
     </row>
     <row r="2067" spans="1:2">
@@ -17047,7 +17047,7 @@
         <v>2088</v>
       </c>
       <c r="B2088">
-        <v>31.6387770497242</v>
+        <v>31.63877704972419</v>
       </c>
     </row>
     <row r="2089" spans="1:2">
@@ -17167,7 +17167,7 @@
         <v>2103</v>
       </c>
       <c r="B2103">
-        <v>2.320592167617878</v>
+        <v>2.320592167617877</v>
       </c>
     </row>
     <row r="2104" spans="1:2">
@@ -17239,7 +17239,7 @@
         <v>2112</v>
       </c>
       <c r="B2112">
-        <v>27.19913180635508</v>
+        <v>27.19913180635507</v>
       </c>
     </row>
     <row r="2113" spans="1:2">
@@ -17247,7 +17247,7 @@
         <v>2113</v>
       </c>
       <c r="B2113">
-        <v>28.54848948255964</v>
+        <v>28.54848948255963</v>
       </c>
     </row>
     <row r="2114" spans="1:2">
@@ -17263,7 +17263,7 @@
         <v>2115</v>
       </c>
       <c r="B2115">
-        <v>34.76144896666083</v>
+        <v>34.76144896666082</v>
       </c>
     </row>
     <row r="2116" spans="1:2">
@@ -17271,7 +17271,7 @@
         <v>2116</v>
       </c>
       <c r="B2116">
-        <v>33.04434575114401</v>
+        <v>33.044345751144</v>
       </c>
     </row>
     <row r="2117" spans="1:2">
@@ -17319,7 +17319,7 @@
         <v>2122</v>
       </c>
       <c r="B2122">
-        <v>5.714797332584635</v>
+        <v>5.714797332584634</v>
       </c>
     </row>
     <row r="2123" spans="1:2">
@@ -17839,7 +17839,7 @@
         <v>2187</v>
       </c>
       <c r="B2187">
-        <v>57.41290954479621</v>
+        <v>57.4129095447962</v>
       </c>
     </row>
     <row r="2188" spans="1:2">
@@ -17911,7 +17911,7 @@
         <v>2196</v>
       </c>
       <c r="B2196">
-        <v>5.347931006388364</v>
+        <v>5.347931006388363</v>
       </c>
     </row>
     <row r="2197" spans="1:2">
@@ -17935,7 +17935,7 @@
         <v>2199</v>
       </c>
       <c r="B2199">
-        <v>0.4686117986883313</v>
+        <v>0.4686117986883312</v>
       </c>
     </row>
     <row r="2200" spans="1:2">
@@ -17967,7 +17967,7 @@
         <v>2203</v>
       </c>
       <c r="B2203">
-        <v>0.9768555939348365</v>
+        <v>0.9768555939348362</v>
       </c>
     </row>
     <row r="2204" spans="1:2">
@@ -18023,7 +18023,7 @@
         <v>2210</v>
       </c>
       <c r="B2210">
-        <v>22.01491028216294</v>
+        <v>22.01491028216293</v>
       </c>
     </row>
     <row r="2211" spans="1:2">
@@ -18071,7 +18071,7 @@
         <v>2216</v>
       </c>
       <c r="B2216">
-        <v>8.28725768153846</v>
+        <v>8.287257681538458</v>
       </c>
     </row>
     <row r="2217" spans="1:2">
@@ -18599,7 +18599,7 @@
         <v>2282</v>
       </c>
       <c r="B2282">
-        <v>6.826386475123251</v>
+        <v>6.82638647512325</v>
       </c>
     </row>
     <row r="2283" spans="1:2">
@@ -19175,7 +19175,7 @@
         <v>2354</v>
       </c>
       <c r="B2354">
-        <v>32.4151222311381</v>
+        <v>32.41512223113809</v>
       </c>
     </row>
     <row r="2355" spans="1:2">
@@ -19247,7 +19247,7 @@
         <v>2363</v>
       </c>
       <c r="B2363">
-        <v>18.64937039548765</v>
+        <v>18.64937039548764</v>
       </c>
     </row>
     <row r="2364" spans="1:2">
@@ -19327,7 +19327,7 @@
         <v>2373</v>
       </c>
       <c r="B2373">
-        <v>38.98577491792546</v>
+        <v>38.98577491792545</v>
       </c>
     </row>
     <row r="2374" spans="1:2">
@@ -19367,7 +19367,7 @@
         <v>2378</v>
       </c>
       <c r="B2378">
-        <v>52.77095736343916</v>
+        <v>52.77095736343915</v>
       </c>
     </row>
     <row r="2379" spans="1:2">
@@ -19455,7 +19455,7 @@
         <v>2389</v>
       </c>
       <c r="B2389">
-        <v>9.052817848729626</v>
+        <v>9.052817848729624</v>
       </c>
     </row>
     <row r="2390" spans="1:2">
@@ -19703,7 +19703,7 @@
         <v>2420</v>
       </c>
       <c r="B2420">
-        <v>3.194650164031861</v>
+        <v>3.19465016403186</v>
       </c>
     </row>
     <row r="2421" spans="1:2">
@@ -19927,7 +19927,7 @@
         <v>2448</v>
       </c>
       <c r="B2448">
-        <v>3.14992752353214</v>
+        <v>3.149927523532139</v>
       </c>
     </row>
     <row r="2449" spans="1:2">
@@ -19959,7 +19959,7 @@
         <v>2452</v>
       </c>
       <c r="B2452">
-        <v>5.582798136771565</v>
+        <v>5.582798136771564</v>
       </c>
     </row>
     <row r="2453" spans="1:2">
@@ -19967,7 +19967,7 @@
         <v>2453</v>
       </c>
       <c r="B2453">
-        <v>2.416335545238153</v>
+        <v>2.416335545238152</v>
       </c>
     </row>
     <row r="2454" spans="1:2">
@@ -19983,7 +19983,7 @@
         <v>2455</v>
       </c>
       <c r="B2455">
-        <v>0.2634342298767168</v>
+        <v>0.2634342298767167</v>
       </c>
     </row>
     <row r="2456" spans="1:2">
@@ -20679,7 +20679,7 @@
         <v>2542</v>
       </c>
       <c r="B2542">
-        <v>0.3216923562970123</v>
+        <v>0.3216923562970122</v>
       </c>
     </row>
     <row r="2543" spans="1:2">
@@ -20775,7 +20775,7 @@
         <v>2554</v>
       </c>
       <c r="B2554">
-        <v>3.577488861835176</v>
+        <v>3.577488861835175</v>
       </c>
     </row>
     <row r="2555" spans="1:2">
@@ -20799,7 +20799,7 @@
         <v>2557</v>
       </c>
       <c r="B2557">
-        <v>2.07063774016439</v>
+        <v>2.070637740164389</v>
       </c>
     </row>
     <row r="2558" spans="1:2">
@@ -20815,7 +20815,7 @@
         <v>2559</v>
       </c>
       <c r="B2559">
-        <v>5.93023385310459</v>
+        <v>5.930233853104589</v>
       </c>
     </row>
     <row r="2560" spans="1:2">
@@ -21031,7 +21031,7 @@
         <v>2586</v>
       </c>
       <c r="B2586">
-        <v>7.476037046523856</v>
+        <v>7.476037046523855</v>
       </c>
     </row>
     <row r="2587" spans="1:2">
@@ -21103,7 +21103,7 @@
         <v>2595</v>
       </c>
       <c r="B2595">
-        <v>38.57782003210887</v>
+        <v>38.57782003210886</v>
       </c>
     </row>
     <row r="2596" spans="1:2">
@@ -21127,7 +21127,7 @@
         <v>2598</v>
       </c>
       <c r="B2598">
-        <v>29.5166496587774</v>
+        <v>29.51664965877739</v>
       </c>
     </row>
     <row r="2599" spans="1:2">
@@ -21159,7 +21159,7 @@
         <v>2602</v>
       </c>
       <c r="B2602">
-        <v>7.643996058780673</v>
+        <v>7.643996058780672</v>
       </c>
     </row>
     <row r="2603" spans="1:2">
@@ -21311,7 +21311,7 @@
         <v>2621</v>
       </c>
       <c r="B2621">
-        <v>25.27438775994669</v>
+        <v>25.27438775994668</v>
       </c>
     </row>
     <row r="2622" spans="1:2">
@@ -21367,7 +21367,7 @@
         <v>2628</v>
       </c>
       <c r="B2628">
-        <v>0.2855599210114937</v>
+        <v>0.2855599210114936</v>
       </c>
     </row>
     <row r="2629" spans="1:2">
@@ -21455,7 +21455,7 @@
         <v>2639</v>
       </c>
       <c r="B2639">
-        <v>7.487085824681389</v>
+        <v>7.487085824681388</v>
       </c>
     </row>
     <row r="2640" spans="1:2">
@@ -21855,7 +21855,7 @@
         <v>2689</v>
       </c>
       <c r="B2689">
-        <v>63.29513836176807</v>
+        <v>63.29513836176806</v>
       </c>
     </row>
     <row r="2690" spans="1:2">
@@ -21991,7 +21991,7 @@
         <v>2706</v>
       </c>
       <c r="B2706">
-        <v>28.26227630620297</v>
+        <v>28.26227630620296</v>
       </c>
     </row>
     <row r="2707" spans="1:2">
@@ -22199,7 +22199,7 @@
         <v>2732</v>
       </c>
       <c r="B2732">
-        <v>7.172210300743639</v>
+        <v>7.172210300743638</v>
       </c>
     </row>
     <row r="2733" spans="1:2">
@@ -22471,7 +22471,7 @@
         <v>2766</v>
       </c>
       <c r="B2766">
-        <v>11.70613649725012</v>
+        <v>11.70613649725011</v>
       </c>
     </row>
     <row r="2767" spans="1:2">
@@ -22607,7 +22607,7 @@
         <v>2783</v>
       </c>
       <c r="B2783">
-        <v>0.08769769839590499</v>
+        <v>0.0876976983959049</v>
       </c>
     </row>
     <row r="2784" spans="1:2">
@@ -22631,7 +22631,7 @@
         <v>2786</v>
       </c>
       <c r="B2786">
-        <v>8.972692226759614</v>
+        <v>8.972692226759612</v>
       </c>
     </row>
     <row r="2787" spans="1:2">
@@ -22655,7 +22655,7 @@
         <v>2789</v>
       </c>
       <c r="B2789">
-        <v>14.859405030623</v>
+        <v>14.85940503062299</v>
       </c>
     </row>
     <row r="2790" spans="1:2">
@@ -23415,7 +23415,7 @@
         <v>2884</v>
       </c>
       <c r="B2884">
-        <v>7.557803866310371</v>
+        <v>7.55780386631037</v>
       </c>
     </row>
     <row r="2885" spans="1:2">
@@ -23423,7 +23423,7 @@
         <v>2885</v>
       </c>
       <c r="B2885">
-        <v>8.404486097002998</v>
+        <v>8.404486097002996</v>
       </c>
     </row>
     <row r="2886" spans="1:2">
@@ -23431,7 +23431,7 @@
         <v>2886</v>
       </c>
       <c r="B2886">
-        <v>6.627186090145136</v>
+        <v>6.627186090145135</v>
       </c>
     </row>
     <row r="2887" spans="1:2">
@@ -23991,7 +23991,7 @@
         <v>2956</v>
       </c>
       <c r="B2956">
-        <v>9.771105657384718</v>
+        <v>9.771105657384716</v>
       </c>
     </row>
     <row r="2957" spans="1:2">
@@ -23999,7 +23999,7 @@
         <v>2957</v>
       </c>
       <c r="B2957">
-        <v>9.80269871535241</v>
+        <v>9.802698715352408</v>
       </c>
     </row>
     <row r="2958" spans="1:2">
@@ -24143,7 +24143,7 @@
         <v>2975</v>
       </c>
       <c r="B2975">
-        <v>3.283392074538516</v>
+        <v>3.283392074538515</v>
       </c>
     </row>
     <row r="2976" spans="1:2">
@@ -27239,7 +27239,7 @@
         <v>3362</v>
       </c>
       <c r="B3362">
-        <v>37.43161919990435</v>
+        <v>37.43161919990434</v>
       </c>
     </row>
     <row r="3363" spans="1:2">
@@ -27255,7 +27255,7 @@
         <v>3364</v>
       </c>
       <c r="B3364">
-        <v>35.84669102282379</v>
+        <v>35.84669102282378</v>
       </c>
     </row>
     <row r="3365" spans="1:2">
@@ -27319,7 +27319,7 @@
         <v>3372</v>
       </c>
       <c r="B3372">
-        <v>0.4264154305418708</v>
+        <v>0.4264154305418707</v>
       </c>
     </row>
     <row r="3373" spans="1:2">
@@ -27455,7 +27455,7 @@
         <v>3389</v>
       </c>
       <c r="B3389">
-        <v>28.26470879582386</v>
+        <v>28.26470879582385</v>
       </c>
     </row>
     <row r="3390" spans="1:2">
@@ -51647,7 +51647,7 @@
         <v>6413</v>
       </c>
       <c r="B6413">
-        <v>6.776886776693351</v>
+        <v>6.77688677669335</v>
       </c>
     </row>
     <row r="6414" spans="1:2">
@@ -56023,7 +56023,7 @@
         <v>6960</v>
       </c>
       <c r="B6960">
-        <v>14.32707079599853</v>
+        <v>14.32707079599852</v>
       </c>
     </row>
     <row r="6961" spans="1:2">
@@ -56055,7 +56055,7 @@
         <v>6964</v>
       </c>
       <c r="B6964">
-        <v>21.35013724516741</v>
+        <v>21.3501372451674</v>
       </c>
     </row>
     <row r="6965" spans="1:2">
@@ -58159,7 +58159,7 @@
         <v>7227</v>
       </c>
       <c r="B7227">
-        <v>60.01889722057289</v>
+        <v>60.01889722057288</v>
       </c>
     </row>
     <row r="7228" spans="1:2">
@@ -58271,7 +58271,7 @@
         <v>7241</v>
       </c>
       <c r="B7241">
-        <v>0.4138514751144589</v>
+        <v>0.4138514751144588</v>
       </c>
     </row>
     <row r="7242" spans="1:2">
@@ -58303,7 +58303,7 @@
         <v>7245</v>
       </c>
       <c r="B7245">
-        <v>19.85184086711515</v>
+        <v>19.85184086711514</v>
       </c>
     </row>
     <row r="7246" spans="1:2">
@@ -58407,7 +58407,7 @@
         <v>7258</v>
       </c>
       <c r="B7258">
-        <v>0.8691578486475652</v>
+        <v>0.8691578486475651</v>
       </c>
     </row>
     <row r="7259" spans="1:2">
@@ -58775,7 +58775,7 @@
         <v>7304</v>
       </c>
       <c r="B7304">
-        <v>15.04931506367555</v>
+        <v>15.04931506367554</v>
       </c>
     </row>
     <row r="7305" spans="1:2">
@@ -58791,7 +58791,7 @@
         <v>7306</v>
       </c>
       <c r="B7306">
-        <v>5.08759600274549</v>
+        <v>5.087596002745489</v>
       </c>
     </row>
     <row r="7307" spans="1:2">
@@ -58919,7 +58919,7 @@
         <v>7322</v>
       </c>
       <c r="B7322">
-        <v>29.86804183413235</v>
+        <v>29.86804183413234</v>
       </c>
     </row>
     <row r="7323" spans="1:2">
@@ -58959,7 +58959,7 @@
         <v>7327</v>
       </c>
       <c r="B7327">
-        <v>23.49231069515865</v>
+        <v>23.49231069515864</v>
       </c>
     </row>
     <row r="7328" spans="1:2">
@@ -58991,7 +58991,7 @@
         <v>7331</v>
       </c>
       <c r="B7331">
-        <v>0.8660337113754353</v>
+        <v>0.8660337113754352</v>
       </c>
     </row>
     <row r="7332" spans="1:2">
@@ -59079,7 +59079,7 @@
         <v>7342</v>
       </c>
       <c r="B7342">
-        <v>4.221278012462554</v>
+        <v>4.221278012462553</v>
       </c>
     </row>
     <row r="7343" spans="1:2">
@@ -59559,7 +59559,7 @@
         <v>7402</v>
       </c>
       <c r="B7402">
-        <v>7.644201208507735</v>
+        <v>7.644201208507734</v>
       </c>
     </row>
     <row r="7403" spans="1:2">
@@ -59583,7 +59583,7 @@
         <v>7405</v>
       </c>
       <c r="B7405">
-        <v>1.760005884866457</v>
+        <v>1.760005884866456</v>
       </c>
     </row>
     <row r="7406" spans="1:2">
@@ -59695,7 +59695,7 @@
         <v>7419</v>
       </c>
       <c r="B7419">
-        <v>41.96103210241544</v>
+        <v>41.96103210241543</v>
       </c>
     </row>
     <row r="7420" spans="1:2">
@@ -60215,7 +60215,7 @@
         <v>7484</v>
       </c>
       <c r="B7484">
-        <v>0.82225769033059</v>
+        <v>0.8222576903305899</v>
       </c>
     </row>
     <row r="7485" spans="1:2">
@@ -60303,7 +60303,7 @@
         <v>7495</v>
       </c>
       <c r="B7495">
-        <v>6.343434710513221</v>
+        <v>6.34343471051322</v>
       </c>
     </row>
     <row r="7496" spans="1:2">
@@ -61055,7 +61055,7 @@
         <v>7589</v>
       </c>
       <c r="B7589">
-        <v>54.64602586879445</v>
+        <v>54.64602586879444</v>
       </c>
     </row>
     <row r="7590" spans="1:2">
@@ -61063,7 +61063,7 @@
         <v>7590</v>
       </c>
       <c r="B7590">
-        <v>51.57874437816481</v>
+        <v>51.5787443781648</v>
       </c>
     </row>
     <row r="7591" spans="1:2">
@@ -61119,7 +61119,7 @@
         <v>7597</v>
       </c>
       <c r="B7597">
-        <v>7.112247966233528</v>
+        <v>7.112247966233527</v>
       </c>
     </row>
     <row r="7598" spans="1:2">
@@ -61223,7 +61223,7 @@
         <v>7610</v>
       </c>
       <c r="B7610">
-        <v>29.7751383148767</v>
+        <v>29.77513831487669</v>
       </c>
     </row>
     <row r="7611" spans="1:2">
@@ -61247,7 +61247,7 @@
         <v>7613</v>
       </c>
       <c r="B7613">
-        <v>25.49111379303676</v>
+        <v>25.49111379303675</v>
       </c>
     </row>
     <row r="7614" spans="1:2">
@@ -61343,7 +61343,7 @@
         <v>7625</v>
       </c>
       <c r="B7625">
-        <v>9.90755953298544</v>
+        <v>9.907559532985438</v>
       </c>
     </row>
     <row r="7626" spans="1:2">
@@ -61359,7 +61359,7 @@
         <v>7627</v>
       </c>
       <c r="B7627">
-        <v>24.17141490594472</v>
+        <v>24.17141490594471</v>
       </c>
     </row>
     <row r="7628" spans="1:2">
@@ -61399,7 +61399,7 @@
         <v>7632</v>
       </c>
       <c r="B7632">
-        <v>40.80984906255368</v>
+        <v>40.80984906255367</v>
       </c>
     </row>
     <row r="7633" spans="1:2">
@@ -61423,7 +61423,7 @@
         <v>7635</v>
       </c>
       <c r="B7635">
-        <v>45.26833877370872</v>
+        <v>45.26833877370871</v>
       </c>
     </row>
     <row r="7636" spans="1:2">
@@ -61439,7 +61439,7 @@
         <v>7637</v>
       </c>
       <c r="B7637">
-        <v>40.78669645049943</v>
+        <v>40.78669645049942</v>
       </c>
     </row>
     <row r="7638" spans="1:2">
@@ -61511,7 +61511,7 @@
         <v>7646</v>
       </c>
       <c r="B7646">
-        <v>12.2266892761204</v>
+        <v>12.22668927612039</v>
       </c>
     </row>
     <row r="7647" spans="1:2">
@@ -61599,7 +61599,7 @@
         <v>7657</v>
       </c>
       <c r="B7657">
-        <v>47.72134336730418</v>
+        <v>47.72134336730417</v>
       </c>
     </row>
     <row r="7658" spans="1:2">
@@ -61719,7 +61719,7 @@
         <v>7672</v>
       </c>
       <c r="B7672">
-        <v>7.734027481857438</v>
+        <v>7.734027481857437</v>
       </c>
     </row>
     <row r="7673" spans="1:2">
@@ -62319,7 +62319,7 @@
         <v>7747</v>
       </c>
       <c r="B7747">
-        <v>53.92741568199683</v>
+        <v>53.92741568199682</v>
       </c>
     </row>
     <row r="7748" spans="1:2">
@@ -62407,7 +62407,7 @@
         <v>7758</v>
       </c>
       <c r="B7758">
-        <v>56.33264969629049</v>
+        <v>56.33264969629048</v>
       </c>
     </row>
     <row r="7759" spans="1:2">
@@ -62471,7 +62471,7 @@
         <v>7766</v>
       </c>
       <c r="B7766">
-        <v>15.05045804072633</v>
+        <v>15.05045804072632</v>
       </c>
     </row>
     <row r="7767" spans="1:2">
@@ -62623,7 +62623,7 @@
         <v>7785</v>
       </c>
       <c r="B7785">
-        <v>40.37669006741221</v>
+        <v>40.3766900674122</v>
       </c>
     </row>
     <row r="7786" spans="1:2">
@@ -62679,7 +62679,7 @@
         <v>7792</v>
       </c>
       <c r="B7792">
-        <v>31.41838762865087</v>
+        <v>31.41838762865086</v>
       </c>
     </row>
     <row r="7793" spans="1:2">
@@ -62703,7 +62703,7 @@
         <v>7795</v>
       </c>
       <c r="B7795">
-        <v>49.67055884544079</v>
+        <v>49.67055884544078</v>
       </c>
     </row>
     <row r="7796" spans="1:2">
@@ -62983,7 +62983,7 @@
         <v>7830</v>
       </c>
       <c r="B7830">
-        <v>79.69099761967703</v>
+        <v>79.69099761967702</v>
       </c>
     </row>
     <row r="7831" spans="1:2">
@@ -63575,7 +63575,7 @@
         <v>7904</v>
       </c>
       <c r="B7904">
-        <v>51.1071930769587</v>
+        <v>51.10719307695869</v>
       </c>
     </row>
     <row r="7905" spans="1:2">
@@ -63599,7 +63599,7 @@
         <v>7907</v>
       </c>
       <c r="B7907">
-        <v>45.21968898129094</v>
+        <v>45.21968898129093</v>
       </c>
     </row>
     <row r="7908" spans="1:2">
@@ -63743,7 +63743,7 @@
         <v>7925</v>
       </c>
       <c r="B7925">
-        <v>34.67001080259849</v>
+        <v>34.67001080259848</v>
       </c>
     </row>
     <row r="7926" spans="1:2">
@@ -63847,7 +63847,7 @@
         <v>7938</v>
       </c>
       <c r="B7938">
-        <v>9.832591961295869</v>
+        <v>9.832591961295863</v>
       </c>
     </row>
     <row r="7939" spans="1:2">
@@ -63911,7 +63911,7 @@
         <v>7946</v>
       </c>
       <c r="B7946">
-        <v>44.44275765779971</v>
+        <v>44.4427576577997</v>
       </c>
     </row>
     <row r="7947" spans="1:2">
@@ -63935,7 +63935,7 @@
         <v>7949</v>
       </c>
       <c r="B7949">
-        <v>40.3843099144174</v>
+        <v>40.38430991441739</v>
       </c>
     </row>
     <row r="7950" spans="1:2">
@@ -63959,7 +63959,7 @@
         <v>7952</v>
       </c>
       <c r="B7952">
-        <v>34.733607217988</v>
+        <v>34.73360721798799</v>
       </c>
     </row>
     <row r="7953" spans="1:2">
@@ -64079,7 +64079,7 @@
         <v>7967</v>
       </c>
       <c r="B7967">
-        <v>35.17438606013467</v>
+        <v>35.17438606013466</v>
       </c>
     </row>
     <row r="7968" spans="1:2">
@@ -64127,7 +64127,7 @@
         <v>7973</v>
       </c>
       <c r="B7973">
-        <v>48.77376146713707</v>
+        <v>48.77376146713706</v>
       </c>
     </row>
     <row r="7974" spans="1:2">
@@ -64143,7 +64143,7 @@
         <v>7975</v>
       </c>
       <c r="B7975">
-        <v>42.92670117480457</v>
+        <v>42.92670117480456</v>
       </c>
     </row>
     <row r="7976" spans="1:2">
@@ -64151,7 +64151,7 @@
         <v>7976</v>
       </c>
       <c r="B7976">
-        <v>41.12314200288265</v>
+        <v>41.12314200288264</v>
       </c>
     </row>
     <row r="7977" spans="1:2">
@@ -64207,7 +64207,7 @@
         <v>7983</v>
       </c>
       <c r="B7983">
-        <v>5.596132869030656</v>
+        <v>5.596132869030655</v>
       </c>
     </row>
     <row r="7984" spans="1:2">
@@ -64295,7 +64295,7 @@
         <v>7994</v>
       </c>
       <c r="B7994">
-        <v>44.86038388789213</v>
+        <v>44.86038388789212</v>
       </c>
     </row>
     <row r="7995" spans="1:2">
@@ -64439,7 +64439,7 @@
         <v>8012</v>
       </c>
       <c r="B8012">
-        <v>36.82261758156607</v>
+        <v>36.82261758156606</v>
       </c>
     </row>
     <row r="8013" spans="1:2">
@@ -64887,7 +64887,7 @@
         <v>8068</v>
       </c>
       <c r="B8068">
-        <v>49.47420124953769</v>
+        <v>49.47420124953768</v>
       </c>
     </row>
     <row r="8069" spans="1:2">
@@ -64919,7 +64919,7 @@
         <v>8072</v>
       </c>
       <c r="B8072">
-        <v>33.57685582839167</v>
+        <v>33.57685582839166</v>
       </c>
     </row>
     <row r="8073" spans="1:2">
@@ -64935,7 +64935,7 @@
         <v>8074</v>
       </c>
       <c r="B8074">
-        <v>15.33218723019148</v>
+        <v>15.33218723019147</v>
       </c>
     </row>
     <row r="8075" spans="1:2">
@@ -65015,7 +65015,7 @@
         <v>8084</v>
       </c>
       <c r="B8084">
-        <v>0.873275496740757</v>
+        <v>0.8732754967407569</v>
       </c>
     </row>
     <row r="8085" spans="1:2">
@@ -65039,7 +65039,7 @@
         <v>8087</v>
       </c>
       <c r="B8087">
-        <v>2.23604996509524</v>
+        <v>2.236049965095239</v>
       </c>
     </row>
     <row r="8088" spans="1:2">
@@ -65087,7 +65087,7 @@
         <v>8093</v>
       </c>
       <c r="B8093">
-        <v>6.257506281977714</v>
+        <v>6.257506281977713</v>
       </c>
     </row>
     <row r="8094" spans="1:2">
@@ -66295,7 +66295,7 @@
         <v>8244</v>
       </c>
       <c r="B8244">
-        <v>16.36816404475547</v>
+        <v>16.36816404475546</v>
       </c>
     </row>
     <row r="8245" spans="1:2">
@@ -66327,7 +66327,7 @@
         <v>8248</v>
       </c>
       <c r="B8248">
-        <v>6.638527939341329</v>
+        <v>6.638527939341328</v>
       </c>
     </row>
     <row r="8249" spans="1:2">
@@ -66359,7 +66359,7 @@
         <v>8252</v>
       </c>
       <c r="B8252">
-        <v>28.10126307756243</v>
+        <v>28.10126307756242</v>
       </c>
     </row>
     <row r="8253" spans="1:2">
@@ -66383,7 +66383,7 @@
         <v>8255</v>
       </c>
       <c r="B8255">
-        <v>33.0853756965566</v>
+        <v>33.08537569655659</v>
       </c>
     </row>
     <row r="8256" spans="1:2">
@@ -67039,7 +67039,7 @@
         <v>8337</v>
       </c>
       <c r="B8337">
-        <v>27.28740480319987</v>
+        <v>27.28740480319986</v>
       </c>
     </row>
     <row r="8338" spans="1:2">
@@ -67079,7 +67079,7 @@
         <v>8342</v>
       </c>
       <c r="B8342">
-        <v>7.300282344638647</v>
+        <v>7.300282344638646</v>
       </c>
     </row>
     <row r="8343" spans="1:2">
@@ -67151,7 +67151,7 @@
         <v>8351</v>
       </c>
       <c r="B8351">
-        <v>49.73679290017825</v>
+        <v>49.73679290017824</v>
       </c>
     </row>
     <row r="8352" spans="1:2">
@@ -67159,7 +67159,7 @@
         <v>8352</v>
       </c>
       <c r="B8352">
-        <v>51.76689598498539</v>
+        <v>51.76689598498538</v>
       </c>
     </row>
     <row r="8353" spans="1:2">
@@ -67615,7 +67615,7 @@
         <v>8409</v>
       </c>
       <c r="B8409">
-        <v>43.92548727456244</v>
+        <v>43.92548727456243</v>
       </c>
     </row>
     <row r="8410" spans="1:2">
@@ -67767,7 +67767,7 @@
         <v>8428</v>
       </c>
       <c r="B8428">
-        <v>54.07043434886357</v>
+        <v>54.07043434886356</v>
       </c>
     </row>
     <row r="8429" spans="1:2">
@@ -67799,7 +67799,7 @@
         <v>8432</v>
       </c>
       <c r="B8432">
-        <v>40.15747293049352</v>
+        <v>40.15747293049351</v>
       </c>
     </row>
     <row r="8433" spans="1:2">
@@ -67943,7 +67943,7 @@
         <v>8450</v>
       </c>
       <c r="B8450">
-        <v>47.47926668936991</v>
+        <v>47.4792666893699</v>
       </c>
     </row>
     <row r="8451" spans="1:2">
@@ -67991,7 +67991,7 @@
         <v>8456</v>
       </c>
       <c r="B8456">
-        <v>33.77292035325611</v>
+        <v>33.7729203532561</v>
       </c>
     </row>
     <row r="8457" spans="1:2">
@@ -68031,7 +68031,7 @@
         <v>8461</v>
       </c>
       <c r="B8461">
-        <v>5.583384278848888</v>
+        <v>5.583384278848887</v>
       </c>
     </row>
     <row r="8462" spans="1:2">
@@ -68047,7 +68047,7 @@
         <v>8463</v>
       </c>
       <c r="B8463">
-        <v>3.439686859456612</v>
+        <v>3.439686859456611</v>
       </c>
     </row>
     <row r="8464" spans="1:2">
@@ -68063,7 +68063,7 @@
         <v>8465</v>
       </c>
       <c r="B8465">
-        <v>8.883422788383369</v>
+        <v>8.883422788383367</v>
       </c>
     </row>
     <row r="8466" spans="1:2">
@@ -68087,7 +68087,7 @@
         <v>8468</v>
       </c>
       <c r="B8468">
-        <v>20.64263445073506</v>
+        <v>20.64263445073505</v>
       </c>
     </row>
     <row r="8469" spans="1:2">
@@ -68311,7 +68311,7 @@
         <v>8496</v>
       </c>
       <c r="B8496">
-        <v>24.00248875926032</v>
+        <v>24.00248875926031</v>
       </c>
     </row>
     <row r="8497" spans="1:2">
@@ -68319,7 +68319,7 @@
         <v>8497</v>
       </c>
       <c r="B8497">
-        <v>26.0429372517322</v>
+        <v>26.04293725173219</v>
       </c>
     </row>
     <row r="8498" spans="1:2">
@@ -68359,7 +68359,7 @@
         <v>8502</v>
       </c>
       <c r="B8502">
-        <v>23.5959406144293</v>
+        <v>23.59594061442929</v>
       </c>
     </row>
     <row r="8503" spans="1:2">
@@ -68383,7 +68383,7 @@
         <v>8505</v>
       </c>
       <c r="B8505">
-        <v>17.76798855381752</v>
+        <v>17.76798855381751</v>
       </c>
     </row>
     <row r="8506" spans="1:2">
@@ -68391,7 +68391,7 @@
         <v>8506</v>
       </c>
       <c r="B8506">
-        <v>17.75389183685791</v>
+        <v>17.7538918368579</v>
       </c>
     </row>
     <row r="8507" spans="1:2">
@@ -68967,7 +68967,7 @@
         <v>8578</v>
       </c>
       <c r="B8578">
-        <v>85.3162031357429</v>
+        <v>85.31620313574288</v>
       </c>
     </row>
     <row r="8579" spans="1:2">
@@ -69047,7 +69047,7 @@
         <v>8588</v>
       </c>
       <c r="B8588">
-        <v>70.10112709260049</v>
+        <v>70.10112709260048</v>
       </c>
     </row>
     <row r="8589" spans="1:2">
@@ -69063,7 +69063,7 @@
         <v>8590</v>
       </c>
       <c r="B8590">
-        <v>70.52959695112338</v>
+        <v>70.52959695112337</v>
       </c>
     </row>
     <row r="8591" spans="1:2">
@@ -69479,7 +69479,7 @@
         <v>8642</v>
       </c>
       <c r="B8642">
-        <v>70.5468881424044</v>
+        <v>70.54688814240438</v>
       </c>
     </row>
     <row r="8643" spans="1:2">
@@ -69791,7 +69791,7 @@
         <v>8681</v>
       </c>
       <c r="B8681">
-        <v>33.3552941231637</v>
+        <v>33.35529412316369</v>
       </c>
     </row>
     <row r="8682" spans="1:2">
@@ -70351,7 +70351,7 @@
         <v>8751</v>
       </c>
       <c r="B8751">
-        <v>69.16388591096151</v>
+        <v>69.1638859109615</v>
       </c>
     </row>
     <row r="8752" spans="1:2">
@@ -70383,7 +70383,7 @@
         <v>8755</v>
       </c>
       <c r="B8755">
-        <v>77.80068942031136</v>
+        <v>77.80068942031134</v>
       </c>
     </row>
     <row r="8756" spans="1:2">
@@ -70399,7 +70399,7 @@
         <v>8757</v>
       </c>
       <c r="B8757">
-        <v>82.71197388619818</v>
+        <v>82.71197388619817</v>
       </c>
     </row>
     <row r="8758" spans="1:2">
